--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E13BEE8-55BD-49E0-998E-783A7441A459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A331EDB2-B574-4072-8CC7-67A41774E7BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E1797431-76D9-4343-BBEE-57809508746E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>Chetan Dhamale</t>
   </si>
@@ -85,39 +85,6 @@
   </si>
   <si>
     <t>ubuntu</t>
-  </si>
-  <si>
-    <t>54.90.200.201</t>
-  </si>
-  <si>
-    <t>54.90.200.202</t>
-  </si>
-  <si>
-    <t>54.90.200.203</t>
-  </si>
-  <si>
-    <t>54.90.200.204</t>
-  </si>
-  <si>
-    <t>54.90.200.205</t>
-  </si>
-  <si>
-    <t>54.90.200.206</t>
-  </si>
-  <si>
-    <t>54.90.200.207</t>
-  </si>
-  <si>
-    <t>54.90.200.208</t>
-  </si>
-  <si>
-    <t>54.90.200.209</t>
-  </si>
-  <si>
-    <t>54.90.200.210</t>
-  </si>
-  <si>
-    <t>54.90.200.211</t>
   </si>
   <si>
     <t>Name</t>
@@ -512,7 +479,7 @@
   <dimension ref="B3:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,7 +491,7 @@
   <sheetData>
     <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -560,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
@@ -571,7 +538,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
@@ -582,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
@@ -593,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>16</v>
@@ -604,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>16</v>
@@ -615,7 +582,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -626,7 +593,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>16</v>
@@ -637,7 +604,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>16</v>
@@ -648,7 +615,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -659,7 +626,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>16</v>
@@ -670,7 +637,7 @@
         <v>12</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>16</v>
